--- a/examples/1928+738/2024-12-13/Pol_LL/86.3/model_params.xlsx
+++ b/examples/1928+738/2024-12-13/Pol_LL/86.3/model_params.xlsx
@@ -525,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4809350300592108</v>
+        <v>0.4719688651891629</v>
       </c>
       <c r="C2">
-        <v>2.005012308295631</v>
+        <v>1.998701490061533</v>
       </c>
       <c r="D2">
-        <v>0.472233970918829</v>
+        <v>0.4727551728033383</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03413988937737761</v>
+        <v>0.03495817247398436</v>
       </c>
       <c r="C3">
-        <v>0.4850059560429238</v>
+        <v>0.4848440190414421</v>
       </c>
       <c r="D3">
-        <v>0.03664555903391742</v>
+        <v>0.0367428357339592</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -559,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1344594489996182</v>
+        <v>0.134023231653576</v>
       </c>
       <c r="C4">
-        <v>0.1621682255638412</v>
+        <v>0.1628954397438703</v>
       </c>
       <c r="D4">
-        <v>0.07142853837017732</v>
+        <v>0.07003435843892578</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03587194373791619</v>
+        <v>0.03620335952685233</v>
       </c>
       <c r="C5">
-        <v>0.4086511661458265</v>
+        <v>0.4087627374172391</v>
       </c>
       <c r="D5">
-        <v>0.03479926857617943</v>
+        <v>0.03498551711160075</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -593,13 +593,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06087919918056825</v>
+        <v>0.06139326966439426</v>
       </c>
       <c r="C6">
-        <v>0.2890506810662375</v>
+        <v>0.28967002444886</v>
       </c>
       <c r="D6">
-        <v>0.04692526773694544</v>
+        <v>0.0458831620155038</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -610,13 +610,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.008706547660360543</v>
+        <v>0.008763308292058264</v>
       </c>
       <c r="C7">
-        <v>0.02091590871017893</v>
+        <v>0.02093672361793475</v>
       </c>
       <c r="D7">
-        <v>0.009112893252321223</v>
+        <v>0.009116968309289798</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -627,13 +627,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.009560608106050306</v>
+        <v>0.009544184344098428</v>
       </c>
       <c r="C8">
-        <v>-0.5188270688311226</v>
+        <v>-0.5187261097328938</v>
       </c>
       <c r="D8">
-        <v>0.00927605748619531</v>
+        <v>0.009079936459044036</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -644,13 +644,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6159100277023883</v>
+        <v>0.6359397559616454</v>
       </c>
       <c r="C9">
-        <v>0.6454354989505254</v>
+        <v>0.6678644121634499</v>
       </c>
       <c r="D9">
-        <v>0.6348800384283827</v>
+        <v>0.6145289293720134</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -661,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.476147092112592</v>
+        <v>2.405187187376117</v>
       </c>
       <c r="C10">
-        <v>2.597845346680097</v>
+        <v>2.540555960327754</v>
       </c>
       <c r="D10">
-        <v>2.286151476632022</v>
+        <v>2.337952513385816</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -678,13 +678,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.722499378821775</v>
+        <v>4.691933150737231</v>
       </c>
       <c r="C11">
-        <v>0.0009223693191619433</v>
+        <v>-0.05456520669591165</v>
       </c>
       <c r="D11">
-        <v>4.740134004568792</v>
+        <v>4.801711479711232</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -695,13 +695,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.540603024925739</v>
+        <v>9.360602992544258</v>
       </c>
       <c r="C12">
-        <v>-9.968484072277425</v>
+        <v>-10.09757843245494</v>
       </c>
       <c r="D12">
-        <v>9.471043942130899</v>
+        <v>9.58148153974283</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -712,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6269327555416735</v>
+        <v>0.6137279445063476</v>
       </c>
       <c r="C13">
-        <v>0.6600282977360524</v>
+        <v>0.6471821257725872</v>
       </c>
       <c r="D13">
-        <v>0.6220525622465839</v>
+        <v>0.6328410178683055</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -729,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.362020427981236</v>
+        <v>2.371380329588634</v>
       </c>
       <c r="C14">
-        <v>2.489865345819443</v>
+        <v>2.496606688437733</v>
       </c>
       <c r="D14">
-        <v>2.376563058582347</v>
+        <v>2.379928946582581</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -746,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.686357021544359</v>
+        <v>4.944609189987451</v>
       </c>
       <c r="C15">
-        <v>-0.05769262469435508</v>
+        <v>0.193312133232822</v>
       </c>
       <c r="D15">
-        <v>4.800424065300547</v>
+        <v>4.563184489678421</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -763,13 +763,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.419053747638767</v>
+        <v>9.373288093597541</v>
       </c>
       <c r="C16">
-        <v>-10.13557150291291</v>
+        <v>-10.13300808705877</v>
       </c>
       <c r="D16">
-        <v>9.618411291352244</v>
+        <v>9.594458255664611</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -780,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6235268482871867</v>
+        <v>0.6103136724880222</v>
       </c>
       <c r="C17">
-        <v>0.6536682805255096</v>
+        <v>0.6439538619643506</v>
       </c>
       <c r="D17">
-        <v>0.6288837714912505</v>
+        <v>0.634374313607057</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -797,13 +797,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.41005956500679</v>
+        <v>2.40811190385345</v>
       </c>
       <c r="C18">
-        <v>2.538900573918872</v>
+        <v>2.541212981516598</v>
       </c>
       <c r="D18">
-        <v>2.331194437985543</v>
+        <v>2.336050262396093</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -814,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.626817861470362</v>
+        <v>4.767253777855824</v>
       </c>
       <c r="C19">
-        <v>-0.1524072762102039</v>
+        <v>-0.00230371098348336</v>
       </c>
       <c r="D19">
-        <v>4.885149860487626</v>
+        <v>4.759863963652545</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -831,13 +831,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.419627611534272</v>
+        <v>9.235720817109478</v>
       </c>
       <c r="C20">
-        <v>-10.0543167216385</v>
+        <v>-10.27132550182273</v>
       </c>
       <c r="D20">
-        <v>9.545172467845445</v>
+        <v>9.786630320075846</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -848,13 +848,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6149302891048448</v>
+        <v>0.6216944313008284</v>
       </c>
       <c r="C21">
-        <v>0.6495963276572083</v>
+        <v>0.6492573446543531</v>
       </c>
       <c r="D21">
-        <v>0.6268300327879091</v>
+        <v>0.6284583831003644</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.473941089276505</v>
+        <v>2.431032903614451</v>
       </c>
       <c r="C22">
-        <v>2.590275992321977</v>
+        <v>2.556600895785587</v>
       </c>
       <c r="D22">
-        <v>2.292331874336099</v>
+        <v>2.311917922937004</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.685243391157424</v>
+        <v>4.662379985553574</v>
       </c>
       <c r="C23">
-        <v>-0.05074483872067182</v>
+        <v>-0.08912426803027494</v>
       </c>
       <c r="D23">
-        <v>4.788982621527493</v>
+        <v>4.81526450592119</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -899,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.312620282629643</v>
+        <v>9.5373872463285</v>
       </c>
       <c r="C24">
-        <v>-10.18748865812326</v>
+        <v>-10.00099832072283</v>
       </c>
       <c r="D24">
-        <v>9.679407366853013</v>
+        <v>9.499599845630176</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -916,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6198381869607301</v>
+        <v>0.6265002877951696</v>
       </c>
       <c r="C25">
-        <v>0.654907701095564</v>
+        <v>0.6582349846671557</v>
       </c>
       <c r="D25">
-        <v>0.6260511723671822</v>
+        <v>0.6217001953387752</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -933,13 +933,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.414876263405665</v>
+        <v>2.324018629464075</v>
       </c>
       <c r="C26">
-        <v>2.535275635621873</v>
+        <v>2.448148575882889</v>
       </c>
       <c r="D26">
-        <v>2.342664411089759</v>
+        <v>2.417233195298517</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.773756432602358</v>
+        <v>4.844718407045668</v>
       </c>
       <c r="C27">
-        <v>0.01572421353547402</v>
+        <v>0.1270275231275233</v>
       </c>
       <c r="D27">
-        <v>4.733383509410024</v>
+        <v>4.631514311145351</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -967,13 +967,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.431748013941368</v>
+        <v>9.372553139624959</v>
       </c>
       <c r="C28">
-        <v>-10.06217339902335</v>
+        <v>-10.13988692983013</v>
       </c>
       <c r="D28">
-        <v>9.6033695791903</v>
+        <v>9.666962876862089</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -984,13 +984,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6356338632514423</v>
+        <v>0.6316046783517563</v>
       </c>
       <c r="C29">
-        <v>0.6676262537275339</v>
+        <v>0.6680911317753151</v>
       </c>
       <c r="D29">
-        <v>0.614579632956799</v>
+        <v>0.6141040778775009</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1001,13 +1001,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.405925318785264</v>
+        <v>2.367937379693251</v>
       </c>
       <c r="C30">
-        <v>2.539634976742518</v>
+        <v>2.492581134903652</v>
       </c>
       <c r="D30">
-        <v>2.340811340663149</v>
+        <v>2.378243515054426</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1018,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.797391349573184</v>
+        <v>4.68336592992555</v>
       </c>
       <c r="C31">
-        <v>0.04684891095863146</v>
+        <v>-0.04523855750041358</v>
       </c>
       <c r="D31">
-        <v>4.685793447630672</v>
+        <v>4.807065400997134</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1035,13 +1035,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.425232270235039</v>
+        <v>9.250996309371009</v>
       </c>
       <c r="C32">
-        <v>-10.07907000179273</v>
+        <v>-10.32862565279028</v>
       </c>
       <c r="D32">
-        <v>9.584738541598051</v>
+        <v>9.812500036020877</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1052,13 +1052,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6239888352646795</v>
+        <v>0.6093998074334454</v>
       </c>
       <c r="C33">
-        <v>0.6595982269690344</v>
+        <v>0.6425161016885589</v>
       </c>
       <c r="D33">
-        <v>0.6192984401534964</v>
+        <v>0.6374172581783463</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1069,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.353536863187469</v>
+        <v>2.345829252501163</v>
       </c>
       <c r="C34">
-        <v>2.471434927087365</v>
+        <v>2.471185850499266</v>
       </c>
       <c r="D34">
-        <v>2.401143065148758</v>
+        <v>2.392884575729588</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1086,13 +1086,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.713164144150078</v>
+        <v>4.628020900052578</v>
       </c>
       <c r="C35">
-        <v>-0.06751969525640539</v>
+        <v>-0.125671268829056</v>
       </c>
       <c r="D35">
-        <v>4.833474825435142</v>
+        <v>4.860648832220646</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1103,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.426647060419771</v>
+        <v>9.30098674987142</v>
       </c>
       <c r="C36">
-        <v>-10.0850643124555</v>
+        <v>-10.14350303849343</v>
       </c>
       <c r="D36">
-        <v>9.520673359358474</v>
+        <v>9.697146872082634</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6151848664845078</v>
+        <v>0.6229975530820889</v>
       </c>
       <c r="C37">
-        <v>0.648657573539792</v>
+        <v>0.657493054802579</v>
       </c>
       <c r="D37">
-        <v>0.6304862045115392</v>
+        <v>0.6237354891650062</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -1137,13 +1137,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.39498892995591</v>
+        <v>2.234635918426967</v>
       </c>
       <c r="C38">
-        <v>2.516916527260435</v>
+        <v>2.36882020598017</v>
       </c>
       <c r="D38">
-        <v>2.360924486239588</v>
+        <v>2.494617046977125</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1154,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.706723200886493</v>
+        <v>4.652315158006909</v>
       </c>
       <c r="C39">
-        <v>-0.05035142552752297</v>
+        <v>-0.09361503805508649</v>
       </c>
       <c r="D39">
-        <v>4.789477413938099</v>
+        <v>4.858563885043432</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1171,13 +1171,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.390079879183544</v>
+        <v>9.000526445037083</v>
       </c>
       <c r="C40">
-        <v>-10.18042959224252</v>
+        <v>-10.5373286580985</v>
       </c>
       <c r="D40">
-        <v>9.688993256871594</v>
+        <v>9.998690247819576</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
